--- a/DiagnosticReportIG/CurrentBuild/all-profiles.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/all-profiles.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
